--- a/BOMs/PCK CNC - BOM.xlsx
+++ b/BOMs/PCK CNC - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\PCK-CNC\PCK-CNC\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741AEADC-410D-466A-9A03-D10F0A64390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1DEF2-050E-430E-B690-5BA462E2CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
   </bookViews>
@@ -940,17 +940,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,16 +964,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B021CE-7FB8-480D-A33D-38B9FC44AE4D}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,12 +1304,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1335,7 +1335,7 @@
       <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1361,7 +1361,7 @@
       <c r="C5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1373,7 +1373,7 @@
       <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1385,7 +1385,7 @@
       <c r="C7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1397,7 +1397,7 @@
       <c r="C8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1405,12 +1405,12 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1464,7 +1464,7 @@
       <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       <c r="C16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1550,12 +1550,12 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1581,7 +1581,7 @@
       <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1607,7 +1607,7 @@
       <c r="C26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1633,7 +1633,7 @@
       <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1659,7 +1659,7 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1709,7 +1709,7 @@
       <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1807,12 +1807,12 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1923,7 +1923,7 @@
       <c r="C51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="6"/>
@@ -1938,7 +1938,7 @@
       <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,16 +1951,16 @@
       <c r="C53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -2090,12 +2090,12 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -2121,7 +2121,7 @@
       <c r="C68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       <c r="C69" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -2149,7 +2149,7 @@
       <c r="C70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="9"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -2162,7 +2162,7 @@
       <c r="C71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -2175,7 +2175,7 @@
       <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="9"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -2188,7 +2188,7 @@
       <c r="C73" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="9"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -2201,7 +2201,7 @@
       <c r="C74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="9"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -2214,7 +2214,7 @@
       <c r="C75" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="9"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -2227,7 +2227,7 @@
       <c r="C76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="9"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -2240,7 +2240,7 @@
       <c r="C77" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -2253,7 +2253,7 @@
       <c r="C78" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -2266,7 +2266,7 @@
       <c r="C79" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="9"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -2279,7 +2279,7 @@
       <c r="C80" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="9"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
@@ -2292,7 +2292,7 @@
       <c r="C81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="9"/>
+      <c r="D81" s="19"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
@@ -2305,7 +2305,7 @@
       <c r="C82" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="9"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -2318,7 +2318,7 @@
       <c r="C83" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -2331,7 +2331,7 @@
       <c r="C84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="9"/>
+      <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -2344,7 +2344,7 @@
       <c r="C85" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -2357,7 +2357,7 @@
       <c r="C86" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="9"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -2370,7 +2370,7 @@
       <c r="C87" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="9"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -2383,7 +2383,7 @@
       <c r="C88" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="9"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
@@ -2395,7 +2395,7 @@
       <c r="C89" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="9"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -2408,7 +2408,7 @@
       <c r="C90" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="9"/>
+      <c r="D90" s="19"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
@@ -2421,7 +2421,7 @@
       <c r="C91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="9"/>
+      <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -2433,7 +2433,7 @@
       <c r="C92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="9"/>
+      <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
@@ -2497,12 +2497,12 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -3318,12 +3318,12 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
@@ -3349,7 +3349,7 @@
       <c r="C160" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3363,20 +3363,10 @@
       <c r="C161" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D161" s="15"/>
+      <c r="D161" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D160:D161"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D51:D53"/>
@@ -3385,6 +3375,16 @@
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{DF9FA33A-53A5-4892-B518-93B78A977082}"/>
@@ -3416,8 +3416,13 @@
     <hyperlink ref="D19" r:id="rId27" xr:uid="{760B3BC3-5F03-42D6-95A5-26F04AFB1516}"/>
     <hyperlink ref="D20" r:id="rId28" xr:uid="{34346F77-486C-4BC5-8335-013EBB3C665E}"/>
     <hyperlink ref="D64" r:id="rId29" xr:uid="{02785DBF-8EC5-4FC4-9E81-A67AFA4B8677}"/>
+    <hyperlink ref="D34:D37" r:id="rId30" display="AliExpress" xr:uid="{51196DDA-9C8A-491A-A877-15F988A8EB5C}"/>
+    <hyperlink ref="D30:D33" r:id="rId31" display="AliExpress" xr:uid="{4B48916D-BC5C-4275-85EE-D2996AB4F66B}"/>
+    <hyperlink ref="D24:D25" r:id="rId32" display="AliExpress" xr:uid="{2378BA00-0CB3-448E-A36B-F78566F43C85}"/>
+    <hyperlink ref="D26:D27" r:id="rId33" display="AliExpress" xr:uid="{94F57458-EB84-4F33-831F-E6A94C0BFF25}"/>
+    <hyperlink ref="D28:D29" r:id="rId34" display="AliExpress" xr:uid="{BBDE98F9-47CE-4CDF-B6F7-BFB5E939C6C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/BOMs/PCK CNC - BOM.xlsx
+++ b/BOMs/PCK CNC - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\PCK-CNC\PCK-CNC\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1DEF2-050E-430E-B690-5BA462E2CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE3759-85A6-47F2-BF5C-31D5BBE88BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
   </bookViews>
@@ -940,13 +940,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,22 +967,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B021CE-7FB8-480D-A33D-38B9FC44AE4D}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,12 +1304,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1335,7 +1335,7 @@
       <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1361,7 +1361,7 @@
       <c r="C5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1373,7 +1373,7 @@
       <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1385,7 +1385,7 @@
       <c r="C7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1397,7 +1397,7 @@
       <c r="C8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1405,12 +1405,12 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1464,7 +1464,7 @@
       <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       <c r="C15" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1490,7 +1490,7 @@
       <c r="C16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1550,12 +1550,12 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1581,7 +1581,7 @@
       <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1607,7 +1607,7 @@
       <c r="C26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1633,7 +1633,7 @@
       <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1659,7 +1659,7 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1685,7 +1685,7 @@
       <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1697,7 +1697,7 @@
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1709,7 +1709,7 @@
       <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -1735,7 +1735,7 @@
       <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -1747,7 +1747,7 @@
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1807,12 +1807,12 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1923,7 +1923,7 @@
       <c r="C51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="6"/>
@@ -1938,7 +1938,7 @@
       <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,16 +1951,16 @@
       <c r="C53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -2090,12 +2090,12 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -2121,7 +2121,7 @@
       <c r="C68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       <c r="C69" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="19"/>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -2149,7 +2149,7 @@
       <c r="C70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -2162,7 +2162,7 @@
       <c r="C71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -2175,7 +2175,7 @@
       <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -2188,7 +2188,7 @@
       <c r="C73" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="19"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -2201,7 +2201,7 @@
       <c r="C74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -2214,7 +2214,7 @@
       <c r="C75" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="19"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -2227,7 +2227,7 @@
       <c r="C76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="19"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -2240,7 +2240,7 @@
       <c r="C77" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -2253,7 +2253,7 @@
       <c r="C78" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="19"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -2266,7 +2266,7 @@
       <c r="C79" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="19"/>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -2279,7 +2279,7 @@
       <c r="C80" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
@@ -2292,7 +2292,7 @@
       <c r="C81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
@@ -2305,7 +2305,7 @@
       <c r="C82" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="19"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -2318,7 +2318,7 @@
       <c r="C83" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="15"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -2331,7 +2331,7 @@
       <c r="C84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="19"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -2344,7 +2344,7 @@
       <c r="C85" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="19"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -2357,12 +2357,12 @@
       <c r="C86" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <f>4+4</f>
-        <v>8</v>
+        <f>4+4+4</f>
+        <v>12</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>90</v>
@@ -2370,7 +2370,7 @@
       <c r="C87" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="19"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -2383,7 +2383,7 @@
       <c r="C88" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="19"/>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
@@ -2395,7 +2395,7 @@
       <c r="C89" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -2408,12 +2408,12 @@
       <c r="C90" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="19"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <f>4*4+2*4</f>
-        <v>24</v>
+        <f>14*2+4</f>
+        <v>32</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>83</v>
@@ -2421,7 +2421,7 @@
       <c r="C91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="19"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -2433,7 +2433,7 @@
       <c r="C92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="19"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
@@ -2497,12 +2497,12 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -3318,12 +3318,12 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
@@ -3349,7 +3349,7 @@
       <c r="C160" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3363,10 +3363,20 @@
       <c r="C161" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D161" s="16"/>
+      <c r="D161" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D160:D161"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D51:D53"/>
@@ -3375,16 +3385,6 @@
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{DF9FA33A-53A5-4892-B518-93B78A977082}"/>

--- a/BOMs/PCK CNC - BOM.xlsx
+++ b/BOMs/PCK CNC - BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\PCK-CNC\PCK-CNC\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE3759-85A6-47F2-BF5C-31D5BBE88BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C9271-E69E-44AA-B69D-08DD7D5CBB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
   </bookViews>
@@ -940,25 +940,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,10 +955,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B021CE-7FB8-480D-A33D-38B9FC44AE4D}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,12 +1304,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1335,7 +1335,7 @@
       <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1361,7 +1361,7 @@
       <c r="C5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1373,7 +1373,7 @@
       <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1385,7 +1385,7 @@
       <c r="C7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1397,7 +1397,7 @@
       <c r="C8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1405,12 +1405,12 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1464,7 +1464,7 @@
       <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       <c r="C15" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1490,7 +1490,7 @@
       <c r="C16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1550,12 +1550,12 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1581,7 +1581,7 @@
       <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1607,7 +1607,7 @@
       <c r="C26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1633,7 +1633,7 @@
       <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1659,7 +1659,7 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1685,7 +1685,7 @@
       <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1697,7 +1697,7 @@
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1709,7 +1709,7 @@
       <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -1735,7 +1735,7 @@
       <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -1747,7 +1747,7 @@
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1807,12 +1807,12 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1923,7 +1923,7 @@
       <c r="C51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="14" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="6"/>
@@ -1938,7 +1938,7 @@
       <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,16 +1951,16 @@
       <c r="C53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -2090,12 +2090,12 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -2121,7 +2121,7 @@
       <c r="C68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       <c r="C69" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -2149,7 +2149,7 @@
       <c r="C70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -2162,7 +2162,7 @@
       <c r="C71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -2175,7 +2175,7 @@
       <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -2188,7 +2188,7 @@
       <c r="C73" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="15"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -2201,7 +2201,7 @@
       <c r="C74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="15"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -2214,7 +2214,7 @@
       <c r="C75" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="15"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -2227,7 +2227,7 @@
       <c r="C76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="15"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -2240,7 +2240,7 @@
       <c r="C77" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="15"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -2253,7 +2253,7 @@
       <c r="C78" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="15"/>
+      <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -2266,7 +2266,7 @@
       <c r="C79" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="15"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -2279,7 +2279,7 @@
       <c r="C80" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
@@ -2292,7 +2292,7 @@
       <c r="C81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="15"/>
+      <c r="D81" s="19"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
@@ -2305,7 +2305,7 @@
       <c r="C82" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="15"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -2318,7 +2318,7 @@
       <c r="C83" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="15"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -2331,7 +2331,7 @@
       <c r="C84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="15"/>
+      <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -2344,7 +2344,7 @@
       <c r="C85" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="15"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -2357,7 +2357,7 @@
       <c r="C86" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="15"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -2370,7 +2370,7 @@
       <c r="C87" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="15"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -2383,7 +2383,7 @@
       <c r="C88" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="15"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
@@ -2395,7 +2395,7 @@
       <c r="C89" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="15"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -2408,7 +2408,7 @@
       <c r="C90" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="15"/>
+      <c r="D90" s="19"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
@@ -2421,7 +2421,7 @@
       <c r="C91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="15"/>
+      <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -2433,7 +2433,7 @@
       <c r="C92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="15"/>
+      <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
@@ -2497,12 +2497,12 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -3318,12 +3318,12 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
@@ -3349,7 +3349,7 @@
       <c r="C160" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3363,20 +3363,10 @@
       <c r="C161" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D161" s="10"/>
+      <c r="D161" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D160:D161"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D51:D53"/>
@@ -3385,6 +3375,16 @@
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{DF9FA33A-53A5-4892-B518-93B78A977082}"/>

--- a/BOMs/PCK CNC - BOM.xlsx
+++ b/BOMs/PCK CNC - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\PCK-CNC\PCK-CNC\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C9271-E69E-44AA-B69D-08DD7D5CBB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73C47C-3591-472F-97CC-EE79626FDFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
   </bookViews>
@@ -157,12 +157,6 @@
   </si>
   <si>
     <t>Bolts &amp; Nuts</t>
-  </si>
-  <si>
-    <t>Flat head (Phillips)</t>
-  </si>
-  <si>
-    <t>Pan head (Phillips)</t>
   </si>
   <si>
     <t>M3x5mm</t>
@@ -378,9 +372,6 @@
     <t>M3x16mm</t>
   </si>
   <si>
-    <t>Socket head (Hex slot)</t>
-  </si>
-  <si>
     <t>M2.5x16mm</t>
   </si>
   <si>
@@ -781,6 +772,15 @@
   </si>
   <si>
     <t>230V 16A - 2NO</t>
+  </si>
+  <si>
+    <t>Flat head (Flat head)</t>
+  </si>
+  <si>
+    <t>Socket head (Socket head)</t>
+  </si>
+  <si>
+    <t>Pan head (Round head)</t>
   </si>
 </sst>
 </file>
@@ -940,13 +940,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,22 +967,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B021CE-7FB8-480D-A33D-38B9FC44AE4D}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,12 +1304,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,9 +1333,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1347,57 +1347,57 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1405,12 +1405,12 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1423,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -1445,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -1459,12 +1459,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1473,34 +1473,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -1511,10 +1511,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
@@ -1525,10 +1525,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
@@ -1539,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -1550,12 +1550,12 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1568,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,9 +1579,9 @@
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1605,9 +1605,9 @@
         <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1631,9 +1631,9 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1657,9 +1657,9 @@
         <v>18</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1685,7 +1685,7 @@
       <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1697,7 +1697,7 @@
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1707,9 +1707,9 @@
         <v>18</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -1735,7 +1735,7 @@
       <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -1747,7 +1747,7 @@
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1757,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -1782,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>14</v>
@@ -1796,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -1807,12 +1807,12 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>14</v>
@@ -1921,9 +1921,9 @@
         <v>40</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="6"/>
@@ -1936,9 +1936,9 @@
         <v>41</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="D52" s="14"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1949,18 +1949,18 @@
         <v>42</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>14</v>
@@ -1995,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>14</v>
@@ -2009,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>14</v>
@@ -2023,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>14</v>
@@ -2037,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>14</v>
@@ -2051,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>14</v>
@@ -2065,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>14</v>
@@ -2079,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>14</v>
@@ -2090,12 +2090,12 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,12 +2116,12 @@
         <v>8</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
         <v>100</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="19"/>
+        <v>204</v>
+      </c>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -2144,12 +2144,12 @@
         <v>106</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -2157,12 +2157,12 @@
         <v>28</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -2170,12 +2170,12 @@
         <v>25</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -2183,12 +2183,12 @@
         <v>14</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -2196,12 +2196,12 @@
         <v>15</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -2209,12 +2209,12 @@
         <v>12</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -2222,12 +2222,12 @@
         <v>18</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -2235,12 +2235,12 @@
         <v>16</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -2248,12 +2248,12 @@
         <v>26</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -2261,12 +2261,12 @@
         <v>74</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -2274,12 +2274,12 @@
         <v>22</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
@@ -2287,12 +2287,12 @@
         <v>2</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
@@ -2300,12 +2300,12 @@
         <v>18</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -2313,12 +2313,12 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D83" s="15"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -2326,12 +2326,12 @@
         <v>14</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D84" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -2339,12 +2339,12 @@
         <v>12</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -2352,12 +2352,12 @@
         <v>12</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -2365,12 +2365,12 @@
         <v>12</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -2378,24 +2378,24 @@
         <v>20</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>4</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -2403,12 +2403,12 @@
         <v>12</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
@@ -2416,24 +2416,24 @@
         <v>32</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>4</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
@@ -2441,10 +2441,10 @@
         <v>64</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>14</v>
@@ -2456,10 +2456,10 @@
         <v>130</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>14</v>
@@ -2471,10 +2471,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>14</v>
@@ -2486,10 +2486,10 @@
         <v>42</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>14</v>
@@ -2497,25 +2497,25 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="A98" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>2</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,13 +2537,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,13 +2551,13 @@
         <v>2</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,13 +2565,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2579,13 +2579,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2593,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2621,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2663,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,13 +2677,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2691,13 +2691,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,13 +2705,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,13 +2719,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2733,13 +2733,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2747,13 +2747,13 @@
         <v>7</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2761,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2775,13 +2775,13 @@
         <v>16</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2789,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2803,13 +2803,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2831,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2845,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2859,13 +2859,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2873,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2887,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2901,13 +2901,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2915,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2929,13 +2929,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2985,13 +2985,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,13 +2999,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3013,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3027,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3041,13 +3041,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3055,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3125,13 +3125,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3139,13 +3139,13 @@
         <v>3</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3153,13 +3153,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3167,13 +3167,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3181,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3195,13 +3195,13 @@
         <v>1</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3209,13 +3209,13 @@
         <v>1</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3237,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3251,13 +3251,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3279,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="D155" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3307,36 +3307,36 @@
         <v>1</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
+      <c r="A158" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,12 +3344,12 @@
         <v>1</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D160" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D160" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3358,15 +3358,25 @@
         <v>1</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D161" s="16"/>
+      <c r="D161" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D160:D161"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D51:D53"/>
@@ -3375,16 +3385,6 @@
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{DF9FA33A-53A5-4892-B518-93B78A977082}"/>

--- a/BOMs/PCK CNC - BOM.xlsx
+++ b/BOMs/PCK CNC - BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\PCK-CNC\PCK-CNC\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73C47C-3591-472F-97CC-EE79626FDFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B6BB9-1E00-4E81-A9C6-3A7EF5379D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="212">
   <si>
     <t>Aluminum extrusions</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>Limit switch cables</t>
-  </si>
-  <si>
-    <t>Bolts &amp; Nuts</t>
-  </si>
-  <si>
-    <t>M3x5mm</t>
   </si>
   <si>
     <r>
@@ -363,51 +357,12 @@
     <t>Sourcing</t>
   </si>
   <si>
-    <t>M3x8mm</t>
-  </si>
-  <si>
-    <t>M3x10mm</t>
-  </si>
-  <si>
-    <t>M3x16mm</t>
-  </si>
-  <si>
-    <t>M2.5x16mm</t>
-  </si>
-  <si>
-    <t>M3x25mm</t>
-  </si>
-  <si>
-    <t>M4x8mm</t>
-  </si>
-  <si>
     <t>M3 T-Slot nut</t>
   </si>
   <si>
     <t>M4 T-Slot nut</t>
   </si>
   <si>
-    <t>M4x12mm</t>
-  </si>
-  <si>
-    <t>M4x16mm</t>
-  </si>
-  <si>
-    <t>M4x10mm</t>
-  </si>
-  <si>
-    <t>M4x20mm</t>
-  </si>
-  <si>
-    <t>M4 Insert</t>
-  </si>
-  <si>
-    <t>M3 Insert</t>
-  </si>
-  <si>
-    <t>M4x40mm</t>
-  </si>
-  <si>
     <t>M5 Nut</t>
   </si>
   <si>
@@ -417,27 +372,6 @@
     <t>M6 Nut</t>
   </si>
   <si>
-    <t>M6x70mm</t>
-  </si>
-  <si>
-    <t>M5x10mm</t>
-  </si>
-  <si>
-    <t>M5x8mm</t>
-  </si>
-  <si>
-    <t>M5x20mm</t>
-  </si>
-  <si>
-    <t>M5x25mm</t>
-  </si>
-  <si>
-    <t>M5x16mm</t>
-  </si>
-  <si>
-    <t>M5x50mm</t>
-  </si>
-  <si>
     <t>Length - 5mm</t>
   </si>
   <si>
@@ -774,13 +708,100 @@
     <t>230V 16A - 2NO</t>
   </si>
   <si>
-    <t>Flat head (Flat head)</t>
-  </si>
-  <si>
-    <t>Socket head (Socket head)</t>
-  </si>
-  <si>
-    <t>Pan head (Round head)</t>
+    <t>Screws &amp; nuts</t>
+  </si>
+  <si>
+    <t>M2.5x16 mm</t>
+  </si>
+  <si>
+    <t>M3x5 mm</t>
+  </si>
+  <si>
+    <t>M3x8 mm</t>
+  </si>
+  <si>
+    <t>M3x10 mm</t>
+  </si>
+  <si>
+    <t>M3x16 mm</t>
+  </si>
+  <si>
+    <t>M3x25 mm</t>
+  </si>
+  <si>
+    <t>M4x8 mm</t>
+  </si>
+  <si>
+    <t>M4x10 mm</t>
+  </si>
+  <si>
+    <t>M4x12 mm</t>
+  </si>
+  <si>
+    <t>M4x16 mm</t>
+  </si>
+  <si>
+    <t>M4x20 mm</t>
+  </si>
+  <si>
+    <t>M4x40 mm</t>
+  </si>
+  <si>
+    <t>M5x8 mm</t>
+  </si>
+  <si>
+    <t>M5x10 mm</t>
+  </si>
+  <si>
+    <t>M5x20 mm</t>
+  </si>
+  <si>
+    <t>M5x25 mm</t>
+  </si>
+  <si>
+    <t>M5x30 mm</t>
+  </si>
+  <si>
+    <t>M5x50 mm</t>
+  </si>
+  <si>
+    <t>M6x70 mm</t>
+  </si>
+  <si>
+    <t>3x20 mm wood screw</t>
+  </si>
+  <si>
+    <t>4x20 mm wood screw</t>
+  </si>
+  <si>
+    <t>M3 Nut</t>
+  </si>
+  <si>
+    <t>M4x6 mm</t>
+  </si>
+  <si>
+    <t>M3x20 mm</t>
+  </si>
+  <si>
+    <t>M4 Threaded insert</t>
+  </si>
+  <si>
+    <t>M3 Threaded insert</t>
+  </si>
+  <si>
+    <t>M3x12 mm</t>
+  </si>
+  <si>
+    <t>M2.5 Nut</t>
+  </si>
+  <si>
+    <t>Round head</t>
+  </si>
+  <si>
+    <t>Flat head</t>
+  </si>
+  <si>
+    <t>Socket head</t>
   </si>
 </sst>
 </file>
@@ -940,25 +961,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,12 +976,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -1288,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B021CE-7FB8-480D-A33D-38B9FC44AE4D}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,12 +1323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1322,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,9 +1352,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1347,57 +1366,57 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1405,12 +1424,12 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1423,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1431,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -1445,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -1459,12 +1478,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1473,34 +1492,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -1511,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
@@ -1525,10 +1544,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
@@ -1539,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -1550,12 +1569,12 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1568,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,9 +1598,9 @@
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1595,7 +1614,7 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1605,9 +1624,9 @@
         <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1621,7 +1640,7 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1631,9 +1650,9 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1647,7 +1666,7 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1657,9 +1676,9 @@
         <v>18</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1673,7 +1692,7 @@
       <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1685,7 +1704,7 @@
       <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1697,7 +1716,7 @@
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1707,9 +1726,9 @@
         <v>18</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,7 +1742,7 @@
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -1735,7 +1754,7 @@
       <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -1747,7 +1766,7 @@
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1757,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -1782,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>14</v>
@@ -1796,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -1807,12 +1826,12 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1825,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1892,7 +1911,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>14</v>
@@ -1921,9 +1940,9 @@
         <v>40</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="6"/>
@@ -1936,9 +1955,9 @@
         <v>41</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="D52" s="15"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1949,18 +1968,18 @@
         <v>42</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -1973,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1981,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>14</v>
@@ -1995,10 +2014,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>14</v>
@@ -2009,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>14</v>
@@ -2023,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>14</v>
@@ -2037,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>14</v>
@@ -2051,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>14</v>
@@ -2065,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>14</v>
@@ -2079,25 +2098,25 @@
         <v>1</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -2108,596 +2127,601 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>8</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <f>9*4+13*4+4+4+4</f>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <f>42+16*2+13*2+2+2+2</f>
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <f>28</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <f>7+4*4+2</f>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <f>2*5+4</f>
         <v>14</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
+        <v>2</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <f>11+4</f>
         <v>15</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="B75" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <f>2*4+4</f>
         <v>12</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="B77" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <f>2*4+2*5</f>
         <v>18</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <f>6+2*4+2</f>
+      <c r="B79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="15"/>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>20</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>58</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>4</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="19"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>16</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="15"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <f>2+4+2+6*2+2*3</f>
-        <v>26</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <f>2*13+8*2+8*4</f>
-        <v>74</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="15"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <f>4*4+6</f>
-        <v>22</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="B84" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="19"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>4</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <f>5*2+8</f>
         <v>18</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D82" s="15"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="B86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="15"/>
+      <c r="E86" s="19"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <f>2+4</f>
         <v>6</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="15"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <f>4+2+2*4</f>
-        <v>14</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" s="15"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <f>2*6</f>
-        <v>12</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="15"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <f>4+2*4</f>
-        <v>12</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D86" s="15"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="B87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="19"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>8</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="19"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>4</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="19"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <f>4+4+4</f>
         <v>12</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="15"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="B90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="19"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>4</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="19"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <f>8+4+8</f>
         <v>20</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D88" s="15"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="B92" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="19"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>4</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D89" s="15"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <f>2+2*5</f>
-        <v>12</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="B93" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="19"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>32</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="19"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>13</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="19"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>4</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="19"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>8</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="19"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>16</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="15"/>
+      <c r="E98" s="19"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <f>14*2+4</f>
         <v>32</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="15"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="B99" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="19"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>4</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D92" s="15"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <f>A76+4+4*4+2*13</f>
+      <c r="B100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>140</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="19"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>76</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C102" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <f>A69+A71+2</f>
-        <v>130</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="E102" s="19"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <f>42</f>
+        <v>42</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="E103" s="19"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="B104" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <f>42</f>
-        <v>42</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="E104" s="19"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="B107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>2</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="B108" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>4</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="B109" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>2</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="B110" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>2</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>1</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>1</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>1</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>1</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>4</v>
-      </c>
       <c r="B111" s="5" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,13 +2729,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,41 +2743,41 @@
         <v>1</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2761,55 +2785,55 @@
         <v>1</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2831,41 +2855,41 @@
         <v>1</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2873,27 +2897,27 @@
         <v>1</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2901,13 +2925,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2915,27 +2939,27 @@
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2943,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2957,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2971,13 +2995,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2985,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3013,13 +3037,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3027,27 +3051,27 @@
         <v>1</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3055,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3069,13 +3093,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3097,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3111,13 +3135,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3125,27 +3149,27 @@
         <v>1</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3153,13 +3177,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3167,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3181,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3195,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3209,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3223,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3237,27 +3261,27 @@
         <v>1</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3265,13 +3289,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3279,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,13 +3317,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3307,36 +3331,55 @@
         <v>1</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>1</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
+      <c r="A158" s="2">
+        <v>1</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>64</v>
+      <c r="A159" s="2">
+        <v>1</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>16</v>
+        <v>169</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3358,33 +3401,126 @@
         <v>1</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D161" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>1</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>1</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>1</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>1</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>1</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D68:D100"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D68:D92"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A66:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{DF9FA33A-53A5-4892-B518-93B78A977082}"/>
@@ -3397,10 +3533,10 @@
     <hyperlink ref="D48" r:id="rId8" xr:uid="{A051E3DE-AD94-48FD-92AE-0E754A369DB4}"/>
     <hyperlink ref="D49" r:id="rId9" xr:uid="{E610B6A5-9E79-4836-9C56-D528326DE1C5}"/>
     <hyperlink ref="D50" r:id="rId10" xr:uid="{0BAD72D1-AD4E-405C-9955-35E106B6C77A}"/>
-    <hyperlink ref="D93" r:id="rId11" xr:uid="{BCACB2B8-B0BD-41F9-BB52-1DB98E7C87F7}"/>
-    <hyperlink ref="D94" r:id="rId12" xr:uid="{086051CA-9FF2-4630-B881-36E716C2ADA3}"/>
-    <hyperlink ref="D95" r:id="rId13" xr:uid="{B47E111F-8B19-4982-8A16-B5A7925EA174}"/>
-    <hyperlink ref="D96" r:id="rId14" xr:uid="{4459086B-4ADA-4456-997A-303418702728}"/>
+    <hyperlink ref="D102" r:id="rId11" xr:uid="{BCACB2B8-B0BD-41F9-BB52-1DB98E7C87F7}"/>
+    <hyperlink ref="D101" r:id="rId12" xr:uid="{086051CA-9FF2-4630-B881-36E716C2ADA3}"/>
+    <hyperlink ref="D104" r:id="rId13" xr:uid="{B47E111F-8B19-4982-8A16-B5A7925EA174}"/>
+    <hyperlink ref="D103" r:id="rId14" xr:uid="{4459086B-4ADA-4456-997A-303418702728}"/>
     <hyperlink ref="D40" r:id="rId15" xr:uid="{C390AC12-F407-401C-A51B-52DBC149DC7D}"/>
     <hyperlink ref="D41" r:id="rId16" xr:uid="{96CFCFF2-C47E-42EB-9BBC-1E59DD4FC340}"/>
     <hyperlink ref="D58" r:id="rId17" location="nav-description" xr:uid="{3D6B3369-B93E-4DCF-8937-BDFFB41950CB}"/>

--- a/BOMs/PCK CNC - BOM.xlsx
+++ b/BOMs/PCK CNC - BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\PCK-CNC\PCK-CNC\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecka\Desktop\GitHub\PCK-CNC\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B6BB9-1E00-4E81-A9C6-3A7EF5379D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736D209-FFD7-405A-AEAA-1DC521AA695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE9F2058-9E2A-487E-A240-3F6A533D1330}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="214">
   <si>
     <t>Aluminum extrusions</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>Socket head</t>
+  </si>
+  <si>
+    <t>22x22x15 mm</t>
+  </si>
+  <si>
+    <t>Heatsink (for PCK Controller)</t>
   </si>
 </sst>
 </file>
@@ -935,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,13 +967,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,26 +991,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1011,7 +1016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1307,30 +1312,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B021CE-7FB8-480D-A33D-38B9FC44AE4D}">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1354,11 +1359,11 @@
       <c r="C3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1368,9 +1373,9 @@
       <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1380,9 +1385,9 @@
       <c r="C5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1392,9 +1397,9 @@
       <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1404,9 +1409,9 @@
       <c r="C7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1416,14 +1421,14 @@
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>91</v>
       </c>
@@ -1431,7 +1436,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1450,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -1473,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1483,11 +1488,11 @@
       <c r="C14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1497,9 +1502,9 @@
       <c r="C15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1509,9 +1514,9 @@
       <c r="C16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1567,8 +1572,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>90</v>
       </c>
@@ -1576,7 +1581,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1600,11 +1605,11 @@
       <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -1614,9 +1619,9 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1626,11 +1631,11 @@
       <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1640,9 +1645,9 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -1652,11 +1657,11 @@
       <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -1666,9 +1671,9 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1678,11 +1683,11 @@
       <c r="C30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -1692,9 +1697,9 @@
       <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -1704,9 +1709,9 @@
       <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1716,9 +1721,9 @@
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -1728,11 +1733,11 @@
       <c r="C34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1742,9 +1747,9 @@
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1754,9 +1759,9 @@
       <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1766,9 +1771,9 @@
       <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -1824,16 +1829,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -1932,7 +1937,7 @@
       </c>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -1942,12 +1947,12 @@
       <c r="C51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -1957,10 +1962,10 @@
       <c r="C52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -1970,18 +1975,18 @@
       <c r="C53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -2023,7 +2028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -2037,7 +2042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>3</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>3</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -2107,489 +2112,455 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>8</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D69" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>92</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>67</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>26</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>26</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>48</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="19"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>14</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>14</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="19"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>2</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <f>11+4</f>
         <v>15</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="19"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>6</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <f>2*4+4</f>
         <v>12</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>6</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="19"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <f>2*4+2*5</f>
         <v>18</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>12</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>20</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
+        <v>58</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>4</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="19"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>16</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>16</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="19"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>4</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <f>5*2+8</f>
         <v>18</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="19"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <f>2+4</f>
         <v>6</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="19"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>8</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="19"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
+        <v>8</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>4</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="19"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <f>4+4+4</f>
         <v>12</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>4</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="19"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
+        <v>4</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <f>8+4+8</f>
         <v>20</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" s="15"/>
-      <c r="E92" s="19"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>4</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="19"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
+        <v>4</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>32</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>13</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="19"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
+        <v>13</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>4</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="19"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>8</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="19"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="19"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
+        <v>16</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <f>14*2+4</f>
         <v>32</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="19"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>4</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="19"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
+        <v>4</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>140</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="19"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>76</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>69</v>
@@ -2597,83 +2568,80 @@
       <c r="D102" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="19"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
+        <v>76</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <f>42</f>
         <v>42</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="19"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="19"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>2</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>4</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>110</v>
@@ -2682,26 +2650,26 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>2</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>114</v>
@@ -2710,26 +2678,26 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>1</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>114</v>
@@ -2738,12 +2706,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>1</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>114</v>
@@ -2752,12 +2720,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>1</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>114</v>
@@ -2766,12 +2734,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>114</v>
@@ -2780,26 +2748,26 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>1</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>1</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>1</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>168</v>
@@ -2808,54 +2776,54 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
+        <v>1</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>4</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="D120" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>6</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>1</v>
-      </c>
-      <c r="B121" s="5" t="s">
+      <c r="D121" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>1</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>1</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>169</v>
@@ -2864,12 +2832,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>169</v>
@@ -2878,12 +2846,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>169</v>
@@ -2892,12 +2860,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>169</v>
@@ -2906,12 +2874,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>169</v>
@@ -2920,12 +2888,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>169</v>
@@ -2934,12 +2902,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>169</v>
@@ -2948,12 +2916,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>1</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>169</v>
@@ -2962,12 +2930,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>1</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>169</v>
@@ -2976,12 +2944,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>1</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>169</v>
@@ -2990,12 +2958,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>1</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>169</v>
@@ -3004,12 +2972,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>169</v>
@@ -3018,12 +2986,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>1</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>169</v>
@@ -3032,12 +3000,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>169</v>
@@ -3046,12 +3014,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>169</v>
@@ -3060,40 +3028,40 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
+        <v>1</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
         <v>4</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B138" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>1</v>
-      </c>
-      <c r="B138" s="5" t="s">
+      <c r="D138" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>1</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>1</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>169</v>
@@ -3102,12 +3070,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>1</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>169</v>
@@ -3116,12 +3084,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>1</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>169</v>
@@ -3130,26 +3098,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>1</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
-        <v>1</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>168</v>
@@ -3158,12 +3126,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>1</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>168</v>
@@ -3172,26 +3140,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>1</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>1</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
-        <v>1</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>169</v>
@@ -3200,12 +3168,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>1</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>169</v>
@@ -3214,26 +3182,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>1</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>1</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
-        <v>1</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>168</v>
@@ -3242,26 +3210,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>1</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>1</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
-        <v>1</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>169</v>
@@ -3270,12 +3238,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>169</v>
@@ -3284,12 +3252,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>169</v>
@@ -3298,12 +3266,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>169</v>
@@ -3312,26 +3280,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>1</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>1</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>168</v>
@@ -3340,12 +3308,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>1</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>168</v>
@@ -3354,12 +3322,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>1</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>168</v>
@@ -3368,26 +3336,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>1</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>1</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
-        <v>1</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>169</v>
@@ -3396,26 +3364,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>1</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>1</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
-        <v>1</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>168</v>
@@ -3424,12 +3392,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>1</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>168</v>
@@ -3438,12 +3406,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>1</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>168</v>
@@ -3452,75 +3420,89 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="12" t="s">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>1</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D168" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
-        <v>1</v>
-      </c>
-      <c r="B168" s="5" t="s">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>1</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C169" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D169" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>1</v>
-      </c>
-      <c r="B169" s="5" t="s">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>1</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D169" s="16"/>
+      <c r="D170" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D68:D100"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D69:D101"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A67:D67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{DF9FA33A-53A5-4892-B518-93B78A977082}"/>
@@ -3533,10 +3515,10 @@
     <hyperlink ref="D48" r:id="rId8" xr:uid="{A051E3DE-AD94-48FD-92AE-0E754A369DB4}"/>
     <hyperlink ref="D49" r:id="rId9" xr:uid="{E610B6A5-9E79-4836-9C56-D528326DE1C5}"/>
     <hyperlink ref="D50" r:id="rId10" xr:uid="{0BAD72D1-AD4E-405C-9955-35E106B6C77A}"/>
-    <hyperlink ref="D102" r:id="rId11" xr:uid="{BCACB2B8-B0BD-41F9-BB52-1DB98E7C87F7}"/>
-    <hyperlink ref="D101" r:id="rId12" xr:uid="{086051CA-9FF2-4630-B881-36E716C2ADA3}"/>
-    <hyperlink ref="D104" r:id="rId13" xr:uid="{B47E111F-8B19-4982-8A16-B5A7925EA174}"/>
-    <hyperlink ref="D103" r:id="rId14" xr:uid="{4459086B-4ADA-4456-997A-303418702728}"/>
+    <hyperlink ref="D103" r:id="rId11" xr:uid="{BCACB2B8-B0BD-41F9-BB52-1DB98E7C87F7}"/>
+    <hyperlink ref="D102" r:id="rId12" xr:uid="{086051CA-9FF2-4630-B881-36E716C2ADA3}"/>
+    <hyperlink ref="D105" r:id="rId13" xr:uid="{B47E111F-8B19-4982-8A16-B5A7925EA174}"/>
+    <hyperlink ref="D104" r:id="rId14" xr:uid="{4459086B-4ADA-4456-997A-303418702728}"/>
     <hyperlink ref="D40" r:id="rId15" xr:uid="{C390AC12-F407-401C-A51B-52DBC149DC7D}"/>
     <hyperlink ref="D41" r:id="rId16" xr:uid="{96CFCFF2-C47E-42EB-9BBC-1E59DD4FC340}"/>
     <hyperlink ref="D58" r:id="rId17" location="nav-description" xr:uid="{3D6B3369-B93E-4DCF-8937-BDFFB41950CB}"/>
@@ -3557,8 +3539,9 @@
     <hyperlink ref="D24:D25" r:id="rId32" display="AliExpress" xr:uid="{2378BA00-0CB3-448E-A36B-F78566F43C85}"/>
     <hyperlink ref="D26:D27" r:id="rId33" display="AliExpress" xr:uid="{94F57458-EB84-4F33-831F-E6A94C0BFF25}"/>
     <hyperlink ref="D28:D29" r:id="rId34" display="AliExpress" xr:uid="{BBDE98F9-47CE-4CDF-B6F7-BFB5E939C6C6}"/>
+    <hyperlink ref="D65" r:id="rId35" xr:uid="{12B2D2BE-5196-40E0-A599-6A7AC749A863}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>